--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>2025-04-25 04:24:57</t>
+  </si>
+  <si>
+    <t>Deepa</t>
+  </si>
+  <si>
+    <t>I079692</t>
+  </si>
+  <si>
+    <t>2025-04-25 05:26:42</t>
   </si>
 </sst>
 </file>
@@ -123,9 +132,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -136,7 +158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -204,6 +226,32 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -132,9 +132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>2025-04-25 05:26:42</t>
+  </si>
+  <si>
+    <t>I079693</t>
+  </si>
+  <si>
+    <t>2025-04-25 05:40:08</t>
   </si>
 </sst>
 </file>
@@ -132,9 +138,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -235,22 +299,22 @@
         <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>60.0</v>
+        <v>100.0</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>2025-04-25 05:40:08</t>
+  </si>
+  <si>
+    <t>NewUser</t>
+  </si>
+  <si>
+    <t>NEW123</t>
+  </si>
+  <si>
+    <t>2025-04-27 12:35:31</t>
+  </si>
+  <si>
+    <t>2025-04-27 12:56:56</t>
   </si>
 </sst>
 </file>
@@ -138,9 +150,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -223,7 +249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -267,7 +293,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>11</v>
@@ -293,13 +319,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>100.0</v>
@@ -311,10 +337,36 @@
         <v>5.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>2025-04-25 05:26:42</t>
+  </si>
+  <si>
+    <t>AnotherTest</t>
+  </si>
+  <si>
+    <t>I567457</t>
+  </si>
+  <si>
+    <t>2025-04-25 12:29:27</t>
   </si>
 </sst>
 </file>
@@ -132,9 +141,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -165,14 +193,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.390625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.05078125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.83984375"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.4375"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.19140625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.9609375"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="20.515625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.03125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.78125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.8046875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.08984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.43359375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.0546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.93359375"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.66796875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -232,25 +260,25 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>60.0</v>
+        <v>100.0</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>2025-04-27 12:56:56</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>I05235</t>
+  </si>
+  <si>
+    <t>2025-04-27 13:06:43</t>
   </si>
 </sst>
 </file>
@@ -150,9 +159,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -249,7 +260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -319,13 +330,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>100.0</v>
@@ -337,35 +348,61 @@
         <v>5.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="E4" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="F4" t="n" s="0">
+      <c r="F5" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="G4" t="n" s="0">
+      <c r="G5" t="n" s="0">
         <v>35.0</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H5" t="s" s="0">
         <v>21</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -159,9 +159,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -159,9 +159,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -263,7 +265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -307,7 +309,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>2.0</v>
+        <v>37.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>11</v>
@@ -333,7 +335,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>5.0</v>
+        <v>38.0</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>23</v>
@@ -355,58 +357,6 @@
       </c>
       <c r="H3" t="s" s="0">
         <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>35.0</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -159,9 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -159,9 +159,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -159,9 +159,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -159,9 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>2025-04-27 13:06:43</t>
+  </si>
+  <si>
+    <t>Test User</t>
+  </si>
+  <si>
+    <t>I999999</t>
+  </si>
+  <si>
+    <t>2025-04-27 15:43:16</t>
+  </si>
+  <si>
+    <t>2025-04-27 15:47:04</t>
   </si>
 </sst>
 </file>
@@ -159,9 +171,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -286,7 +316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -330,7 +360,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>37.0</v>
+        <v>79.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>11</v>
@@ -356,13 +386,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>38.0</v>
+        <v>80.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>100.0</v>
@@ -374,10 +404,62 @@
         <v>5.0</v>
       </c>
       <c r="G3" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>81.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
         <v>26.0</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H4" t="s" s="0">
         <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>82.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -102,6 +102,33 @@
   </si>
   <si>
     <t>2025-04-27 15:47:04</t>
+  </si>
+  <si>
+    <t>Meow</t>
+  </si>
+  <si>
+    <t>I07547</t>
+  </si>
+  <si>
+    <t>2025-04-27 21:41:00</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>I332232</t>
+  </si>
+  <si>
+    <t>2025-04-27 21:42:00</t>
+  </si>
+  <si>
+    <t>deepas</t>
+  </si>
+  <si>
+    <t>I35425</t>
+  </si>
+  <si>
+    <t>2025-04-27 21:52:00</t>
   </si>
 </sst>
 </file>
@@ -171,9 +198,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -316,13 +352,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.390625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.54296875"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="17.05078125"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.83984375"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.0"/>
@@ -360,7 +396,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>79.0</v>
+        <v>105.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>11</v>
@@ -386,7 +422,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>80.0</v>
+        <v>106.0</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>14</v>
@@ -412,7 +448,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>81.0</v>
+        <v>107.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>23</v>
@@ -438,13 +474,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>82.0</v>
+        <v>111.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>80.0</v>
@@ -456,10 +492,88 @@
         <v>4.0</v>
       </c>
       <c r="G5" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
         <v>60.0</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H6" t="s" s="0">
         <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>109.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -198,9 +198,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -352,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -474,13 +483,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>111.0</v>
+        <v>108.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>80.0</v>
@@ -492,47 +501,47 @@
         <v>4.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>23.0</v>
+        <v>60.0</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>108.0</v>
+        <v>109.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>80.0</v>
+        <v>40.0</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>60.0</v>
+        <v>12.0</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>109.0</v>
+        <v>110.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>40.0</v>
@@ -544,35 +553,9 @@
         <v>2.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>12.0</v>
+        <v>23.0</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
-        <v>110.0</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="D8" t="n" s="0">
-        <v>40.0</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="F8" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="H8" t="s" s="0">
         <v>35</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -198,9 +198,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>2025-04-27 21:52:00</t>
+  </si>
+  <si>
+    <t>I0796921</t>
+  </si>
+  <si>
+    <t>2025-04-27 23:12:00</t>
   </si>
 </sst>
 </file>
@@ -198,9 +204,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -362,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -510,39 +523,39 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>109.0</v>
+        <v>112.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G6" t="n" s="0">
         <v>12.0</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>110.0</v>
+        <v>109.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n" s="0">
         <v>40.0</v>
@@ -554,9 +567,35 @@
         <v>2.0</v>
       </c>
       <c r="G7" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
         <v>23.0</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="H8" t="s" s="0">
         <v>35</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -135,6 +135,54 @@
   </si>
   <si>
     <t>2025-04-27 23:12:00</t>
+  </si>
+  <si>
+    <t>312424</t>
+  </si>
+  <si>
+    <t>2025-04-27 23:13:00</t>
+  </si>
+  <si>
+    <t>Meeryte</t>
+  </si>
+  <si>
+    <t>I012345566</t>
+  </si>
+  <si>
+    <t>Zumba</t>
+  </si>
+  <si>
+    <t>I5674572</t>
+  </si>
+  <si>
+    <t>ddfghd</t>
+  </si>
+  <si>
+    <t>2124235</t>
+  </si>
+  <si>
+    <t>2025-04-27 23:14:00</t>
+  </si>
+  <si>
+    <t>24242352</t>
+  </si>
+  <si>
+    <t>2435325634</t>
+  </si>
+  <si>
+    <t>asdgs</t>
+  </si>
+  <si>
+    <t>343463</t>
+  </si>
+  <si>
+    <t>2025-04-27 23:21:00</t>
+  </si>
+  <si>
+    <t>12415135</t>
+  </si>
+  <si>
+    <t>2025-04-27 23:22:00</t>
   </si>
 </sst>
 </file>
@@ -204,9 +252,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -375,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -383,7 +455,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="4.54296875"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="17.05078125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.83984375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.70703125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.0"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.4375"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="18.19140625"/>
@@ -419,39 +491,39 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
-        <v>105.0</v>
+        <v>115.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="E2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>11.0</v>
-      </c>
       <c r="H2" t="s" s="0">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>106.0</v>
+        <v>116.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n" s="0">
         <v>100.0</v>
@@ -463,140 +535,296 @@
         <v>5.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>21.0</v>
+        <v>2.0</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <v>107.0</v>
+        <v>105.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="0">
-        <v>108.0</v>
+        <v>113.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>60.0</v>
+        <v>12.0</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="0">
-        <v>112.0</v>
+        <v>106.0</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>14</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>60.0</v>
+        <v>100.0</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>109.0</v>
+        <v>107.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>40.0</v>
+        <v>100.0</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>12.0</v>
+        <v>26.0</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
+        <v>112.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>109.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
         <v>110.0</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B11" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C11" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="D8" t="n" s="0">
+      <c r="D11" t="n" s="0">
         <v>40.0</v>
       </c>
-      <c r="E8" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="F8" t="n" s="0">
+      <c r="E11" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="G8" t="n" s="0">
+      <c r="G11" t="n" s="0">
         <v>23.0</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H11" t="s" s="0">
         <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>117.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>224.0</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>114.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>119.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
